--- a/data/aprob-dyad-ratio/Q-series.xlsx
+++ b/data/aprob-dyad-ratio/Q-series.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,16 @@
           <t>aprob_opuy</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -376,6 +386,14 @@
       <c r="B2">
         <v>35.61144356634024</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>1990.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -384,6 +402,14 @@
       <c r="B3">
         <v>32.95815402726893</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>1990.75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -392,6 +418,14 @@
       <c r="B4">
         <v>33.90902598471443</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>1991</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -400,6 +434,14 @@
       <c r="B5">
         <v>33.90564678716384</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>1991.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -408,6 +450,14 @@
       <c r="B6">
         <v>34.87836196359226</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>1991.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -416,6 +466,14 @@
       <c r="B7">
         <v>32.93804166739592</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>1991.75</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -424,6 +482,14 @@
       <c r="B8">
         <v>32.55189345343909</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>1992</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -432,6 +498,14 @@
       <c r="B9">
         <v>32.22519250371025</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>1992.25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -440,6 +514,14 @@
       <c r="B10">
         <v>30.8818730938609</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>1992.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -448,6 +530,14 @@
       <c r="B11">
         <v>32.8378854095095</v>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>1992.75</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -456,6 +546,14 @@
       <c r="B12">
         <v>35.53909757293116</v>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>1993</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -464,6 +562,14 @@
       <c r="B13">
         <v>32.95068058918183</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>1993.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -472,6 +578,14 @@
       <c r="B14">
         <v>32.1933841958251</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>1993.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -480,6 +594,14 @@
       <c r="B15">
         <v>35.18648862599548</v>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>1993.75</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -488,6 +610,14 @@
       <c r="B16">
         <v>35.26690828811128</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>1994</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -496,6 +626,14 @@
       <c r="B17">
         <v>37.26585774848321</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>1994.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -504,6 +642,14 @@
       <c r="B18">
         <v>41.2468878020508</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>1994.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -512,6 +658,14 @@
       <c r="B19">
         <v>42.87612360476365</v>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>1994.75</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -520,6 +674,14 @@
       <c r="B20">
         <v>41.82151686922705</v>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>1995</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -528,6 +690,14 @@
       <c r="B21">
         <v>40.77354227109719</v>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>1995.25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -536,6 +706,14 @@
       <c r="B22">
         <v>40.27443423460004</v>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>1995.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -544,6 +722,14 @@
       <c r="B23">
         <v>40.31327458334872</v>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>1995.75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -552,6 +738,14 @@
       <c r="B24">
         <v>40.37515135847135</v>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>1996</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -560,6 +754,14 @@
       <c r="B25">
         <v>37.94452915038018</v>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>1996.25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -568,6 +770,14 @@
       <c r="B26">
         <v>39.43167074405645</v>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>1996.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -576,6 +786,14 @@
       <c r="B27">
         <v>40.79384304901031</v>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>1996.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -584,6 +802,14 @@
       <c r="B28">
         <v>41.49208251403341</v>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>1997</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -592,6 +818,14 @@
       <c r="B29">
         <v>39.52044939568071</v>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>1997.25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -600,6 +834,14 @@
       <c r="B30">
         <v>39.25062203239395</v>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>1997.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -608,6 +850,14 @@
       <c r="B31">
         <v>41.45369271510691</v>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>1997.75</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -616,6 +866,14 @@
       <c r="B32">
         <v>43.9406392328291</v>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>1998</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -624,6 +882,14 @@
       <c r="B33">
         <v>44.00412463267072</v>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>1998.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -632,6 +898,14 @@
       <c r="B34">
         <v>42.90182758530028</v>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>1998.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -640,6 +914,14 @@
       <c r="B35">
         <v>44.86437364241945</v>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>1998.75</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -648,6 +930,14 @@
       <c r="B36">
         <v>44.91262974541139</v>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>1999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -656,6 +946,14 @@
       <c r="B37">
         <v>41.81958824863811</v>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>1999.25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -664,6 +962,14 @@
       <c r="B38">
         <v>49.82840173525038</v>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>1999.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -672,6 +978,14 @@
       <c r="B39">
         <v>49.8244657541985</v>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>1999.75</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -680,6 +994,14 @@
       <c r="B40">
         <v>49.82426486384795</v>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>2000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -688,6 +1010,14 @@
       <c r="B41">
         <v>56.9587640354077</v>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>2000.25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -696,6 +1026,14 @@
       <c r="B42">
         <v>51.95777757085752</v>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>2000.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -704,6 +1042,14 @@
       <c r="B43">
         <v>45.08804972112067</v>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>2000.75</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -712,6 +1058,14 @@
       <c r="B44">
         <v>46.00996806420884</v>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>2001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -720,6 +1074,14 @@
       <c r="B45">
         <v>44.56626501372504</v>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>2001.25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -728,6 +1090,14 @@
       <c r="B46">
         <v>43.90605063599728</v>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>2001.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -736,6 +1106,14 @@
       <c r="B47">
         <v>42.34196895206184</v>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>2001.75</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -744,6 +1122,14 @@
       <c r="B48">
         <v>37.99962814531953</v>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>2002</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -752,6 +1138,14 @@
       <c r="B49">
         <v>34.43588036530558</v>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>2002.25</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -760,6 +1154,14 @@
       <c r="B50">
         <v>30.12711409351575</v>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>2002.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -768,6 +1170,14 @@
       <c r="B51">
         <v>29.82723289612306</v>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>2002.75</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -776,6 +1186,14 @@
       <c r="B52">
         <v>26.79679813561742</v>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>2003</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -784,6 +1202,14 @@
       <c r="B53">
         <v>27.5438310432146</v>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>2003.25</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -792,6 +1218,14 @@
       <c r="B54">
         <v>27.58459725520218</v>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>2003.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -800,6 +1234,14 @@
       <c r="B55">
         <v>28.06697754654817</v>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>2003.75</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -808,6 +1250,14 @@
       <c r="B56">
         <v>29.61653346271463</v>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>2004</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -816,6 +1266,14 @@
       <c r="B57">
         <v>29.09147050157196</v>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>2004.25</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -824,6 +1282,14 @@
       <c r="B58">
         <v>29.85145474003937</v>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>2004.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -832,6 +1298,14 @@
       <c r="B59">
         <v>31.76466289644919</v>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>2004.75</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -840,6 +1314,14 @@
       <c r="B60">
         <v>67.14743366074912</v>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>2005</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -848,6 +1330,14 @@
       <c r="B61">
         <v>70.65679263543055</v>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>2005.25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -856,6 +1346,14 @@
       <c r="B62">
         <v>60.92119461406924</v>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>2005.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -864,6 +1362,14 @@
       <c r="B63">
         <v>58.49845231923401</v>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>2005.75</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -872,6 +1378,14 @@
       <c r="B64">
         <v>59.77366659257821</v>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>2006</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -880,6 +1394,14 @@
       <c r="B65">
         <v>52.79418752575892</v>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>2006.25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -888,6 +1410,14 @@
       <c r="B66">
         <v>53.13689910357924</v>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>2006.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -896,6 +1426,14 @@
       <c r="B67">
         <v>55.1268103123288</v>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>2006.75</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -904,6 +1442,14 @@
       <c r="B68">
         <v>54.23613567474779</v>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>2007</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -912,6 +1458,14 @@
       <c r="B69">
         <v>52.77755127632119</v>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>2007.25</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -920,6 +1474,14 @@
       <c r="B70">
         <v>51.9415965952274</v>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>2007.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -928,6 +1490,14 @@
       <c r="B71">
         <v>50.70923996098827</v>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>2007.75</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -936,6 +1506,14 @@
       <c r="B72">
         <v>53.36870510058558</v>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>2008</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -944,6 +1522,14 @@
       <c r="B73">
         <v>52.41356786602545</v>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>2008.25</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -952,6 +1538,14 @@
       <c r="B74">
         <v>56.92023899465257</v>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>2008.5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -960,6 +1554,14 @@
       <c r="B75">
         <v>56.96302156453327</v>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>2008.75</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -968,6 +1570,14 @@
       <c r="B76">
         <v>59.31608127029562</v>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>2009</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -976,6 +1586,14 @@
       <c r="B77">
         <v>60.70166408886291</v>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>2009.25</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -984,6 +1602,14 @@
       <c r="B78">
         <v>61.71351318080328</v>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>2009.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -992,6 +1618,14 @@
       <c r="B79">
         <v>62.30665228258758</v>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>2009.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -1000,6 +1634,14 @@
       <c r="B80">
         <v>65.29350043419078</v>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>2010</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -1008,6 +1650,14 @@
       <c r="B81">
         <v>68.34341464829367</v>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>2010.25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -1016,6 +1666,14 @@
       <c r="B82">
         <v>66.2178910995904</v>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>2010.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -1024,6 +1682,14 @@
       <c r="B83">
         <v>60.81135557191558</v>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>2010.75</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -1032,6 +1698,14 @@
       <c r="B84">
         <v>53.09587015162506</v>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>2011</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -1040,6 +1714,14 @@
       <c r="B85">
         <v>45.47029066613463</v>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>2011.25</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -1048,6 +1730,14 @@
       <c r="B86">
         <v>52.89003448261944</v>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>2011.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -1056,6 +1746,14 @@
       <c r="B87">
         <v>55.18155403874327</v>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>2011.75</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -1064,6 +1762,14 @@
       <c r="B88">
         <v>54.56933364347453</v>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>2012</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -1072,6 +1778,14 @@
       <c r="B89">
         <v>51.62401474767374</v>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>2012.25</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -1080,6 +1794,14 @@
       <c r="B90">
         <v>48.02096609670397</v>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>2012.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -1088,6 +1810,14 @@
       <c r="B91">
         <v>49.42578790269982</v>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>2012.75</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -1096,6 +1826,14 @@
       <c r="B92">
         <v>53.39008410628963</v>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>2013</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -1104,6 +1842,14 @@
       <c r="B93">
         <v>52.56349256714841</v>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>2013.25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -1112,6 +1858,14 @@
       <c r="B94">
         <v>50.03962814937464</v>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>2013.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -1120,6 +1874,14 @@
       <c r="B95">
         <v>51.7216787485651</v>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>2013.75</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -1128,6 +1890,14 @@
       <c r="B96">
         <v>55.54287785174385</v>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>2014</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -1136,6 +1906,14 @@
       <c r="B97">
         <v>58.09655767313721</v>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>2014.25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -1144,6 +1922,14 @@
       <c r="B98">
         <v>58.54451348090676</v>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>2014.5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -1152,6 +1938,14 @@
       <c r="B99">
         <v>64.3063551085025</v>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>2014.75</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -1160,6 +1954,14 @@
       <c r="B100">
         <v>59.11364852858389</v>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>2015</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -1168,6 +1970,14 @@
       <c r="B101">
         <v>60.86794198831733</v>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>2015.25</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -1176,6 +1986,14 @@
       <c r="B102">
         <v>50.59466915864353</v>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>2015.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -1184,6 +2002,14 @@
       <c r="B103">
         <v>45.29391842397911</v>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>2015.75</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -1192,6 +2018,14 @@
       <c r="B104">
         <v>45.45587440901322</v>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>2016</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -1200,6 +2034,14 @@
       <c r="B105">
         <v>44.91397094961761</v>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>2016.25</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -1208,6 +2050,14 @@
       <c r="B106">
         <v>45.56275160096867</v>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>2016.5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -1216,6 +2066,14 @@
       <c r="B107">
         <v>44.32480047393046</v>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>2016.75</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -1224,6 +2082,14 @@
       <c r="B108">
         <v>42.79167178580585</v>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>2017</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -1232,6 +2098,14 @@
       <c r="B109">
         <v>40.9008992421011</v>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>2017.25</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -1240,6 +2114,14 @@
       <c r="B110">
         <v>40.88100422256016</v>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>2017.5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -1248,6 +2130,14 @@
       <c r="B111">
         <v>45.94428047715022</v>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>2017.75</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -1256,6 +2146,14 @@
       <c r="B112">
         <v>39.27243073191799</v>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>2018</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -1264,6 +2162,14 @@
       <c r="B113">
         <v>42.42214876220997</v>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>2018.25</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -1272,6 +2178,14 @@
       <c r="B114">
         <v>39.49329718821605</v>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>2018.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -1280,6 +2194,14 @@
       <c r="B115">
         <v>39.22340426660755</v>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>2018.75</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -1288,6 +2210,14 @@
       <c r="B116">
         <v>40.84569073954896</v>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>2019</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -1296,6 +2226,14 @@
       <c r="B117">
         <v>36.56632119647072</v>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>2019.25</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -1304,6 +2242,14 @@
       <c r="B118">
         <v>44.45968539398018</v>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>2019.5</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -1312,6 +2258,14 @@
       <c r="B119">
         <v>49.7904211151746</v>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>2019.75</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -1320,6 +2274,14 @@
       <c r="B120">
         <v>68.65319679136373</v>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>2020</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -1328,6 +2290,14 @@
       <c r="B121">
         <v>66.72613335444005</v>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>2020.25</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -1336,6 +2306,14 @@
       <c r="B122">
         <v>65.57586073060109</v>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>2020.5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -1344,6 +2322,14 @@
       <c r="B123">
         <v>66.46284880037476</v>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>2020.75</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -1352,6 +2338,14 @@
       <c r="B124">
         <v>62.78045284352238</v>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>2021</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -1360,6 +2354,14 @@
       <c r="B125">
         <v>62.73529695948574</v>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>2021.25</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -1367,6 +2369,14 @@
       </c>
       <c r="B126">
         <v>62.73299222751302</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>opuy</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>2021.5</v>
       </c>
     </row>
   </sheetData>
